--- a/tenants_test.xlsx
+++ b/tenants_test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>tenant_id</t>
   </si>
@@ -62,6 +62,39 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J, J, L</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>L, M, G</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>A, B, C</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>D, G</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -431,6 +464,104 @@
       <c r="C8" s="1">
         <v>1.0</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
